--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44638</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44498</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43416</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44277</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>44523</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44952</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>43389</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>43455</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>43455</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>43469</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>43500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>43564</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43633</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>43721</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>43742</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>43817</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>43817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>43817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>43817</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43817</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43864</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>43888</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44232</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>44272</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>44368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44546</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44565</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44565</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44565</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44569</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44569</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44569</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>44569</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44572</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44575</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44575</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44582</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>44583</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44621</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44673</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44673</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44673</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44673</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44677</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44677</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44678</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44684</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44749</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44851</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44905</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44915</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44915</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44915</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44915</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44915</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44915</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44915</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44917</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44917</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44920</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44924</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44935</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44951</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>44951</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44952</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44960</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44966</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>45082</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45113</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44638</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44498</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43416</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44277</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>44523</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44952</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>43389</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>43455</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>43455</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>43469</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>43500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>43564</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43633</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>43721</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>43742</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>43817</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>43817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>43817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>43817</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43817</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43864</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>43888</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44232</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>44272</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>44368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44546</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44565</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44565</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44565</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44569</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44569</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44569</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>44569</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44572</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44575</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44575</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44582</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>44583</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44621</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44673</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44673</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44673</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44673</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44677</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44677</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44678</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44684</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44749</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44851</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44905</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44915</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44915</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44915</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44915</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44915</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44915</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44915</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44917</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44917</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44920</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44924</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44935</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44951</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>44951</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44952</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44960</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44966</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>45082</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45113</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44638</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44498</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43416</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44277</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>44523</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44952</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>43389</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>43455</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>43455</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>43469</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>43500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>43564</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43633</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>43721</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>43742</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>43817</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>43817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>43817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>43817</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43817</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43864</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>43888</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44232</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>44272</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>44368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44546</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44565</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44565</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44565</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44569</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44569</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44569</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>44569</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44572</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44575</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44575</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44582</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>44583</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44621</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44673</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44673</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44673</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44673</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44677</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44677</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44678</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44684</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44749</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44851</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44905</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44915</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44915</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44915</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44915</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44915</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44915</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44915</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44917</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44917</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44920</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44924</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44935</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44951</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>44951</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44952</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44960</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44966</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>45082</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45113</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44638</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44498</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43416</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44277</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>44523</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44952</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>43389</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>43455</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>43455</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>43469</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>43500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>43564</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43633</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>43721</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>43742</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>43817</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>43817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>43817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>43817</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43817</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43864</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>43888</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44232</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>44272</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>44368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44546</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44565</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44565</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44565</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44569</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44569</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44569</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>44569</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44572</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44575</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44575</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44582</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>44583</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44621</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44673</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44673</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44673</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44673</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44677</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44677</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44678</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44684</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44749</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44851</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44905</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44915</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44915</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44915</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44915</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44915</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44915</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44915</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44917</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44917</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44920</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44924</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44935</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44951</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>44951</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44952</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44960</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44966</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>45082</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45113</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44638</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44498</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43416</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44277</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>44523</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44952</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>43389</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>43455</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>43455</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>43469</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>43500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>43564</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43633</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>43721</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>43742</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>43817</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>43817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>43817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>43817</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43817</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43864</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>43888</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44232</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>44272</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>44368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44546</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44565</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44565</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44565</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44569</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44569</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44569</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>44569</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44572</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44575</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44575</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44582</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>44583</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44621</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44673</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44673</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44673</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44673</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44677</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44677</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44678</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44684</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44749</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44851</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44905</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44915</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44915</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44915</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44915</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44915</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44915</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44915</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44917</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44917</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44920</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44924</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44935</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44951</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>44951</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44952</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44960</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44966</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>45082</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45113</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44638</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44498</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43416</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44277</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>44523</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44952</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>43389</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>43455</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>43455</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>43469</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>43500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>43564</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43633</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>43721</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>43742</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>43817</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>43817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>43817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>43817</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43817</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43864</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>43888</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44232</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>44272</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>44368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44546</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44565</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44565</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44565</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44569</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44569</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44569</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>44569</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44572</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44575</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44575</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44582</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>44583</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44621</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44673</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44673</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44673</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44673</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44677</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44677</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44678</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44684</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44749</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44851</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44905</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44915</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44915</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44915</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44915</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44915</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44915</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44915</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44917</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44917</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44920</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44924</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44935</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44951</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>44951</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44952</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44960</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44966</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>45082</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45113</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44638</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44498</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43416</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44277</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>44523</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44952</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>43389</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>43455</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>43455</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>43469</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>43500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>43564</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43633</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>43721</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>43742</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>43817</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>43817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>43817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>43817</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43817</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43864</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>43888</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44232</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>44272</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>44368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44546</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44565</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44565</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44565</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44569</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44569</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44569</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>44569</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44572</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44575</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44575</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44582</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>44583</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44621</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44673</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44673</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44673</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44673</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44677</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44677</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44678</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44684</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44749</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44851</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44905</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44915</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44915</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44915</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44915</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44915</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44915</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44915</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44917</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44917</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44920</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44924</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44935</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44951</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>44951</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44952</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44960</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44966</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>45082</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45113</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44638</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44498</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43416</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44277</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>44523</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44952</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>43389</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>43455</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>43455</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>43469</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>43500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>43564</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43633</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>43721</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>43742</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>43817</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>43817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>43817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>43817</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43817</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43864</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>43888</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44232</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>44272</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>44368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44546</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44565</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44565</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44565</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44569</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44569</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44569</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>44569</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44572</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44575</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44575</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44582</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>44583</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44621</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44673</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44673</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44673</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44673</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44677</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44677</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44678</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44684</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44749</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44851</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44905</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44915</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44915</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44915</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44915</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44915</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44915</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44915</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44917</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44917</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44920</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44924</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44935</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44951</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>44951</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44952</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44960</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44966</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>45082</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45113</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44638</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44498</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43416</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44277</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>44523</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44952</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>43389</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>43455</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>43455</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>43469</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>43500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>43564</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43633</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>43721</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>43742</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>43817</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>43817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>43817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>43817</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43817</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43864</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>43888</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44232</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>44272</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>44368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44546</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44565</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44565</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44565</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44569</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44569</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44569</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>44569</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44572</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44575</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44575</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44582</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>44583</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44621</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44673</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44673</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44673</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44673</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44677</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44677</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44678</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44684</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44749</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44851</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44905</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44915</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44915</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44915</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44915</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44915</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44915</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44915</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44917</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44917</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44920</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44924</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44935</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44951</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>44951</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44952</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44960</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44966</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>45082</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45113</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -643,27 +643,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/artfynd/A 61718-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/artfynd/A 61718-2022.xlsx", "A 61718-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/kartor/A 61718-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/kartor/A 61718-2022.png", "A 61718-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomål/A 61718-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomål/A 61718-2022.docx", "A 61718-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomålsmail/A 61718-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomålsmail/A 61718-2022.docx", "A 61718-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsyn/A 61718-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsyn/A 61718-2022.docx", "A 61718-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsynsmail/A 61718-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsynsmail/A 61718-2022.docx", "A 61718-2022")</f>
         <v/>
       </c>
     </row>
@@ -677,7 +677,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -738,27 +738,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/artfynd/A 61724-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/artfynd/A 61724-2022.xlsx", "A 61724-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/kartor/A 61724-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/kartor/A 61724-2022.png", "A 61724-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomål/A 61724-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomål/A 61724-2022.docx", "A 61724-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomålsmail/A 61724-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomålsmail/A 61724-2022.docx", "A 61724-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsyn/A 61724-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsyn/A 61724-2022.docx", "A 61724-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsynsmail/A 61724-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsynsmail/A 61724-2022.docx", "A 61724-2022")</f>
         <v/>
       </c>
     </row>
@@ -772,7 +772,7 @@
         <v>44638</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -825,27 +825,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/artfynd/A 12620-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/artfynd/A 12620-2022.xlsx", "A 12620-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/kartor/A 12620-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/kartor/A 12620-2022.png", "A 12620-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomål/A 12620-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomål/A 12620-2022.docx", "A 12620-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomålsmail/A 12620-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomålsmail/A 12620-2022.docx", "A 12620-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsyn/A 12620-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsyn/A 12620-2022.docx", "A 12620-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsynsmail/A 12620-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsynsmail/A 12620-2022.docx", "A 12620-2022")</f>
         <v/>
       </c>
     </row>
@@ -859,7 +859,7 @@
         <v>44678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -912,27 +912,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/artfynd/A 17244-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/artfynd/A 17244-2022.xlsx", "A 17244-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/kartor/A 17244-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/kartor/A 17244-2022.png", "A 17244-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomål/A 17244-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomål/A 17244-2022.docx", "A 17244-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomålsmail/A 17244-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomålsmail/A 17244-2022.docx", "A 17244-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsyn/A 17244-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsyn/A 17244-2022.docx", "A 17244-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsynsmail/A 17244-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsynsmail/A 17244-2022.docx", "A 17244-2022")</f>
         <v/>
       </c>
     </row>
@@ -946,7 +946,7 @@
         <v>44498</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -998,27 +998,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/artfynd/A 61275-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/artfynd/A 61275-2021.xlsx", "A 61275-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/kartor/A 61275-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/kartor/A 61275-2021.png", "A 61275-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomål/A 61275-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomål/A 61275-2021.docx", "A 61275-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomålsmail/A 61275-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomålsmail/A 61275-2021.docx", "A 61275-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsyn/A 61275-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsyn/A 61275-2021.docx", "A 61275-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsynsmail/A 61275-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsynsmail/A 61275-2021.docx", "A 61275-2021")</f>
         <v/>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
         <v>44915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,27 +1084,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/artfynd/A 61363-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/artfynd/A 61363-2022.xlsx", "A 61363-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/kartor/A 61363-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/kartor/A 61363-2022.png", "A 61363-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomål/A 61363-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomål/A 61363-2022.docx", "A 61363-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomålsmail/A 61363-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomålsmail/A 61363-2022.docx", "A 61363-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsyn/A 61363-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsyn/A 61363-2022.docx", "A 61363-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsynsmail/A 61363-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsynsmail/A 61363-2022.docx", "A 61363-2022")</f>
         <v/>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
         <v>43416</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,27 +1174,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/artfynd/A 63522-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/artfynd/A 63522-2018.xlsx", "A 63522-2018")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/kartor/A 63522-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/kartor/A 63522-2018.png", "A 63522-2018")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomål/A 63522-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomål/A 63522-2018.docx", "A 63522-2018")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomålsmail/A 63522-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomålsmail/A 63522-2018.docx", "A 63522-2018")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsyn/A 63522-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsyn/A 63522-2018.docx", "A 63522-2018")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsynsmail/A 63522-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsynsmail/A 63522-2018.docx", "A 63522-2018")</f>
         <v/>
       </c>
     </row>
@@ -1208,7 +1208,7 @@
         <v>44277</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1259,27 +1259,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/artfynd/A 13942-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/artfynd/A 13942-2021.xlsx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/kartor/A 13942-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/kartor/A 13942-2021.png", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomål/A 13942-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomål/A 13942-2021.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomålsmail/A 13942-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomålsmail/A 13942-2021.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsyn/A 13942-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsyn/A 13942-2021.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsynsmail/A 13942-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsynsmail/A 13942-2021.docx", "A 13942-2021")</f>
         <v/>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
         <v>44523</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1349,27 +1349,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/artfynd/A 67278-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/artfynd/A 67278-2021.xlsx", "A 67278-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/kartor/A 67278-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/kartor/A 67278-2021.png", "A 67278-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomål/A 67278-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomål/A 67278-2021.docx", "A 67278-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomålsmail/A 67278-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomålsmail/A 67278-2021.docx", "A 67278-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsyn/A 67278-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsyn/A 67278-2021.docx", "A 67278-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsynsmail/A 67278-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsynsmail/A 67278-2021.docx", "A 67278-2021")</f>
         <v/>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,27 +1434,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/artfynd/A 22172-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/artfynd/A 22172-2022.xlsx", "A 22172-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/kartor/A 22172-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/kartor/A 22172-2022.png", "A 22172-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomål/A 22172-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomål/A 22172-2022.docx", "A 22172-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomålsmail/A 22172-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomålsmail/A 22172-2022.docx", "A 22172-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsyn/A 22172-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsyn/A 22172-2022.docx", "A 22172-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsynsmail/A 22172-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsynsmail/A 22172-2022.docx", "A 22172-2022")</f>
         <v/>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1519,27 +1519,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/artfynd/A 61732-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/artfynd/A 61732-2022.xlsx", "A 61732-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/kartor/A 61732-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/kartor/A 61732-2022.png", "A 61732-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomål/A 61732-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomål/A 61732-2022.docx", "A 61732-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomålsmail/A 61732-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomålsmail/A 61732-2022.docx", "A 61732-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsyn/A 61732-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsyn/A 61732-2022.docx", "A 61732-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsynsmail/A 61732-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsynsmail/A 61732-2022.docx", "A 61732-2022")</f>
         <v/>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
         <v>44952</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,27 +1609,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/artfynd/A 3919-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/artfynd/A 3919-2023.xlsx", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/kartor/A 3919-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/kartor/A 3919-2023.png", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomål/A 3919-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomål/A 3919-2023.docx", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomålsmail/A 3919-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/klagomålsmail/A 3919-2023.docx", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsyn/A 3919-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsyn/A 3919-2023.docx", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsynsmail/A 3919-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERAKER/tillsynsmail/A 3919-2023.docx", "A 3919-2023")</f>
         <v/>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
         <v>43389</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>43455</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>43455</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>43469</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>43500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>43564</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43633</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>43721</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>43742</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>43817</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>43817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>43817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>43817</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43817</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43864</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>43888</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44232</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>44272</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>44368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44546</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44565</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44565</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44565</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44569</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44569</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44569</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>44569</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44572</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44575</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44575</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44582</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>44583</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44621</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44673</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44673</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44673</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44673</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44677</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44677</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44678</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44684</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44749</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44851</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44905</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44915</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44915</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44915</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44915</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44915</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44915</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44915</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44917</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44917</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44920</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44924</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44935</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44951</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>44951</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44952</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44960</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44966</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>45082</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45113</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44638</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44498</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43416</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44277</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>44523</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44952</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>43389</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>43455</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>43455</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>43469</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>43500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>43564</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43633</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>43721</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>43742</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>43817</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>43817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>43817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>43817</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43817</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43864</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>43888</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44232</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>44272</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>44368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44546</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44565</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44565</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44565</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44569</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44569</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44569</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>44569</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44572</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44575</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44575</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44582</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>44583</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44621</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44673</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44673</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44673</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44673</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44677</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44677</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44678</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44684</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44749</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44851</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44905</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44915</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44915</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44915</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44915</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44915</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44915</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44915</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44917</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44917</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44920</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44924</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44935</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44951</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>44951</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44952</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44960</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44966</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>45082</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45113</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44638</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44498</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43416</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44277</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>44523</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44952</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>43389</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>43455</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>43455</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>43469</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>43500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>43564</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43633</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>43721</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>43742</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>43817</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>43817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>43817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>43817</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43817</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43864</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>43888</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44232</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>44272</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>44368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44546</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44565</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44565</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44565</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44569</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44569</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44569</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>44569</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44572</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44575</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44575</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44582</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>44583</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44621</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44673</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44673</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44673</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44673</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44677</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44677</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44678</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44684</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44749</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44851</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44905</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44915</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44915</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44915</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44915</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44915</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44915</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44915</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44917</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44917</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44920</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44924</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44935</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44951</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>44951</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44952</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44960</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44966</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>45082</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45113</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44638</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44498</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43416</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44277</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>44523</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44952</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>43389</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>43455</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>43455</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>43469</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>43500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>43564</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43633</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>43721</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>43742</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>43817</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>43817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>43817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>43817</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43817</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43864</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>43888</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44232</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>44272</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>44368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44546</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44565</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44565</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44565</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44569</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44569</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44569</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>44569</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44572</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44575</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44575</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44582</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>44583</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44621</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44673</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44673</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44673</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44673</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44677</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44677</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44678</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44684</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44749</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44851</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44905</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44915</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44915</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44915</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44915</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44915</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44915</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44915</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44917</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44917</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44920</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44924</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44935</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44951</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>44951</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44952</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44960</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44966</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>45082</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45113</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44638</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44498</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43416</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44277</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>44523</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44952</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>43389</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>43455</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>43455</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>43469</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>43500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>43564</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43633</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>43721</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>43742</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>43817</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>43817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>43817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>43817</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43817</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43864</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>43888</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44232</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>44272</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>44368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44546</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44565</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44565</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44565</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44569</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44569</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44569</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>44569</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44572</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44575</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44575</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44582</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>44583</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44621</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44673</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44673</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44673</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44673</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44677</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44677</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44678</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44684</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44749</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44851</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44905</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44915</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44915</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44915</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44915</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44915</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44915</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44915</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44917</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44917</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44920</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44924</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44935</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44951</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>44951</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44952</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44960</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44966</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>45082</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45113</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44638</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44498</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43416</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44277</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>44523</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44952</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>43389</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>43455</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>43455</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>43469</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>43500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>43564</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43633</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>43721</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>43742</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>43817</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>43817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>43817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>43817</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43817</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43864</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>43888</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44232</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>44272</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>44368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44546</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44565</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44565</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44565</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44569</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44569</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44569</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>44569</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44572</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44575</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44575</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44582</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>44583</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44621</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44673</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44673</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44673</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44673</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44677</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44677</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44678</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44684</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44749</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44851</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44905</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44915</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44915</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44915</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44915</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44915</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44915</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44915</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44917</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44917</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44920</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44924</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44935</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44951</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>44951</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44952</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44960</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44966</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>45082</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45113</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44638</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44498</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43416</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44277</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>44523</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44952</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>43389</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>43455</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>43455</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>43469</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>43500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>43564</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43633</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>43721</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>43742</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>43817</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>43817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>43817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>43817</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43817</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43864</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>43888</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44232</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>44272</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>44368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44546</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44565</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44565</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44565</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44569</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44569</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44569</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>44569</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44572</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44575</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44575</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44582</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>44583</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44621</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44673</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44673</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44673</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44673</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44677</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44677</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44678</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44684</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44749</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44851</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44905</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44915</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44915</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44915</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44915</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44915</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44915</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44915</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44917</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44917</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44920</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44924</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44935</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44951</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>44951</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44952</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44960</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44966</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>45082</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45113</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44638</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44498</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43416</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44277</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>44523</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44952</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>43389</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>43455</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>43455</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>43469</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>43500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>43564</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43633</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>43721</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>43742</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>43817</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>43817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>43817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>43817</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43817</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43864</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>43888</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44232</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>44272</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>44368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44546</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44565</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44565</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44565</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44569</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44569</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44569</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>44569</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44572</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44575</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44575</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44582</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>44583</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44621</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44673</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44673</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44673</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44673</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44677</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44677</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44678</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44684</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44749</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44851</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44905</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44915</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44915</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44915</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44915</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44915</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44915</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44915</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44917</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44917</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44920</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44924</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44935</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44951</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>44951</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44952</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44960</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44966</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>45082</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45113</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44638</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44498</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43416</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44277</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>44523</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44952</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>43389</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>43455</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>43455</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>43469</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>43500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>43564</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43633</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>43721</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>43742</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>43817</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>43817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>43817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>43817</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43817</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43864</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>43888</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44232</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>44272</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>44368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44546</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44565</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44565</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44565</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44569</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44569</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44569</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>44569</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44572</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44575</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44575</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44582</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>44583</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44621</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44673</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44673</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44673</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44673</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44677</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44677</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44678</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44684</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44749</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44851</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44905</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44915</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44915</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44915</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44915</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44915</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44915</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44915</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44917</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44917</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44920</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44924</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44935</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44951</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>44951</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44952</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44960</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44966</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>45082</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45113</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44638</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44498</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43416</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44277</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>44523</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44952</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>43389</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>43455</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>43455</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>43469</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>43500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>43564</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43633</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>43721</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>43742</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>43817</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>43817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>43817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>43817</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43817</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43864</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>43888</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44232</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>44272</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>44368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44546</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44565</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44565</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44565</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44569</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44569</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44569</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>44569</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44572</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44575</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44575</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44582</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>44583</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44621</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44673</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44673</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44673</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44673</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44677</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44677</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44678</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44684</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44749</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44851</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44905</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44915</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44915</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44915</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44915</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44915</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44915</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44915</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44917</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44917</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44920</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44924</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44935</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44951</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>44951</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44952</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44960</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44966</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>45082</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45113</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44638</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44498</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43416</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44277</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>44523</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44952</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>43389</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>43455</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>43455</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>43469</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>43500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>43564</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43633</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>43721</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>43742</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>43817</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>43817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>43817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>43817</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43817</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43864</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>43888</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44232</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>44272</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>44368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44546</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44565</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44565</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44565</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44569</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44569</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44569</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>44569</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44572</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44575</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44575</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44582</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>44583</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44621</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44673</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44673</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44673</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44673</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44677</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44677</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44678</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44684</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44749</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44851</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44905</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44915</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44915</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44915</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44915</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44915</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44915</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44915</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44917</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44917</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44920</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44924</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44935</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44951</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>44951</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44952</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44960</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44966</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>45082</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45113</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
